--- a/database/cidades.xlsx
+++ b/database/cidades.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\NOVO ESTUDO M.A\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\GitHub\relatorio_ma\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FFB4F-F3E1-4B00-BC10-1CDBA343E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8FE1D3-7566-4DB0-9203-9C7B15E3CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$120</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Latitude</t>
   </si>
@@ -176,9 +179,6 @@
     <t>QUEIMADAS</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>RIACHAO DO JACUIPE</t>
   </si>
   <si>
@@ -296,9 +296,6 @@
     <t>SATIRO DIAS</t>
   </si>
   <si>
-    <t>RUI BARBOSA</t>
-  </si>
-  <si>
     <t>NOVA ITARANA</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
   </si>
   <si>
     <t>ICHU</t>
-  </si>
-  <si>
-    <t>MARACAS</t>
   </si>
   <si>
     <t>TAPIRAMUTA</t>
@@ -783,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +791,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -831,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>-15.252267</v>
@@ -848,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>-13.859059200000001</v>
@@ -899,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>-13.537812199999999</v>
@@ -916,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>-13.5281974</v>
@@ -950,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>-13.4499324</v>
@@ -967,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>-13.4381088</v>
@@ -976,1914 +970,1864 @@
         <v>-40.433584400000001</v>
       </c>
       <c r="E11" s="4">
-        <v>21589</v>
+        <v>26654</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>-13.4380717</v>
+        <v>-13.380091699999999</v>
       </c>
       <c r="D12">
-        <v>-40.433579700000003</v>
+        <v>-38.912490400000003</v>
       </c>
       <c r="E12" s="4">
-        <v>5065</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>-13.380091699999999</v>
+        <v>-13.370017000000001</v>
       </c>
       <c r="D13">
-        <v>-38.912490400000003</v>
+        <v>-39.072055900000002</v>
       </c>
       <c r="E13" s="4">
-        <v>8529</v>
+        <v>601324.76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>-13.370017000000001</v>
+        <v>-13.2930206</v>
       </c>
       <c r="D14">
-        <v>-39.072055900000002</v>
+        <v>-40.959738199999997</v>
       </c>
       <c r="E14" s="4">
-        <v>601324.76</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C15">
-        <v>-13.2930206</v>
+        <v>-13.2681466</v>
       </c>
       <c r="D15">
-        <v>-40.959738199999997</v>
+        <v>-39.660553899999996</v>
       </c>
       <c r="E15" s="4">
-        <v>8795</v>
+        <v>67535.7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>-13.2681466</v>
+        <v>-13.2583796</v>
       </c>
       <c r="D16">
-        <v>-39.660553899999996</v>
+        <v>-39.567986400000002</v>
       </c>
       <c r="E16" s="4">
-        <v>67535.7</v>
+        <v>25409.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C17">
-        <v>-13.2583796</v>
+        <v>-13.2521231</v>
       </c>
       <c r="D17">
-        <v>-39.567986400000002</v>
+        <v>-43.4172303</v>
       </c>
       <c r="E17" s="4">
-        <v>25409.5</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C18">
-        <v>-13.2521231</v>
+        <v>-13.2288403</v>
       </c>
       <c r="D18">
-        <v>-43.4172303</v>
+        <v>-39.504707699999997</v>
       </c>
       <c r="E18" s="4">
-        <v>4364</v>
+        <v>137257.18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C19">
-        <v>-13.2288403</v>
+        <v>-13.181637200000001</v>
       </c>
       <c r="D19">
-        <v>-39.504707699999997</v>
+        <v>-39.422544000000002</v>
       </c>
       <c r="E19" s="4">
-        <v>137257.18</v>
+        <v>20291.66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>-13.181637200000001</v>
+        <v>-13.1037493</v>
       </c>
       <c r="D20">
-        <v>-39.422544000000002</v>
+        <v>-39.794894900000003</v>
       </c>
       <c r="E20" s="4">
-        <v>20291.66</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>-13.1037493</v>
+        <v>-13.047143500000001</v>
       </c>
       <c r="D21">
-        <v>-39.794894900000003</v>
+        <v>-39.456066999999997</v>
       </c>
       <c r="E21" s="4">
-        <v>2942</v>
+        <v>33141.4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C22">
-        <v>-13.047143500000001</v>
+        <v>-13.0376747</v>
       </c>
       <c r="D22">
-        <v>-39.456066999999997</v>
+        <v>-39.004300200000003</v>
       </c>
       <c r="E22" s="4">
-        <v>33141.4</v>
+        <v>5911.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>-13.0376747</v>
+        <v>-13.0297377</v>
       </c>
       <c r="D23">
-        <v>-39.004300200000003</v>
+        <v>-39.602080200000003</v>
       </c>
       <c r="E23" s="4">
-        <v>5911.1</v>
+        <v>230742.6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>-13.0297377</v>
+        <v>-13.026473599999999</v>
       </c>
       <c r="D24">
-        <v>-39.602080200000003</v>
+        <v>-40.066911699999999</v>
       </c>
       <c r="E24" s="4">
-        <v>230742.6</v>
+        <v>58461.55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C25">
-        <v>-13.026473599999999</v>
+        <v>-13.0174655</v>
       </c>
       <c r="D25">
-        <v>-40.066911699999999</v>
+        <v>-42.686750199999999</v>
       </c>
       <c r="E25" s="4">
-        <v>58461.55</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C26">
-        <v>-13.0174655</v>
+        <v>-12.983560199999999</v>
       </c>
       <c r="D26">
-        <v>-42.686750199999999</v>
+        <v>-40.968108600000001</v>
       </c>
       <c r="E26" s="4">
-        <v>7457</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>-12.983560199999999</v>
+        <v>-12.9777334</v>
       </c>
       <c r="D27">
-        <v>-40.968108600000001</v>
+        <v>-38.501648000000003</v>
       </c>
       <c r="E27" s="4">
-        <v>7917</v>
+        <v>82014.799999999988</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>-12.9777334</v>
+        <v>-12.9698964</v>
       </c>
       <c r="D28">
-        <v>-38.501648000000003</v>
+        <v>-39.261671100000001</v>
       </c>
       <c r="E28" s="4">
-        <v>82014.799999999988</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <v>-12.9698964</v>
+        <v>-12.9450658</v>
       </c>
       <c r="D29">
-        <v>-39.261671100000001</v>
+        <v>-39.5212796</v>
       </c>
       <c r="E29" s="4">
-        <v>1209</v>
+        <v>45808.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C30">
-        <v>-12.9450658</v>
+        <v>-12.9060255</v>
       </c>
       <c r="D30">
-        <v>-39.5212796</v>
+        <v>-39.191989499999998</v>
       </c>
       <c r="E30" s="4">
-        <v>45808.5</v>
+        <v>7572.7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C31">
-        <v>-12.9060255</v>
+        <v>-12.9001699</v>
       </c>
       <c r="D31">
-        <v>-39.191989499999998</v>
+        <v>-38.6730631</v>
       </c>
       <c r="E31" s="4">
-        <v>7572.7</v>
+        <v>25227.4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C32">
-        <v>-12.9001699</v>
+        <v>-12.8857737</v>
       </c>
       <c r="D32">
-        <v>-38.6730631</v>
+        <v>-38.318559499999999</v>
       </c>
       <c r="E32" s="4">
-        <v>25227.4</v>
+        <v>36254</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C33">
-        <v>-12.8857737</v>
+        <v>-12.8477119</v>
       </c>
       <c r="D33">
-        <v>-38.318559499999999</v>
+        <v>-39.089719799999997</v>
       </c>
       <c r="E33" s="4">
-        <v>36254</v>
+        <v>66380.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>-12.8477119</v>
+        <v>-12.806544300000001</v>
       </c>
       <c r="D34">
-        <v>-39.089719799999997</v>
+        <v>-41.330264399999997</v>
       </c>
       <c r="E34" s="4">
-        <v>66380.5</v>
+        <v>55485.35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C35">
-        <v>-12.806544300000001</v>
+        <v>-12.7794244</v>
       </c>
       <c r="D35">
-        <v>-41.330264399999997</v>
+        <v>-39.169977600000003</v>
       </c>
       <c r="E35" s="4">
-        <v>55485.35</v>
+        <v>12873</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36">
-        <v>-12.7794244</v>
+        <v>-12.777364</v>
       </c>
       <c r="D36">
-        <v>-39.169977600000003</v>
+        <v>-38.917364800000001</v>
       </c>
       <c r="E36" s="4">
-        <v>12873</v>
+        <v>126948.4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>-12.777364</v>
+        <v>-12.7652492</v>
       </c>
       <c r="D37">
-        <v>-38.917364800000001</v>
+        <v>-40.2116118</v>
       </c>
       <c r="E37" s="4">
-        <v>126948.4</v>
+        <v>124273.1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C38">
-        <v>-12.7652492</v>
+        <v>-12.7630815</v>
       </c>
       <c r="D38">
-        <v>-40.2116118</v>
+        <v>-39.429770699999999</v>
       </c>
       <c r="E38" s="4">
-        <v>124273.1</v>
+        <v>42661.65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>-12.7630815</v>
+        <v>-12.7099665</v>
       </c>
       <c r="D39">
-        <v>-39.429770699999999</v>
+        <v>-41.828490899999998</v>
       </c>
       <c r="E39" s="4">
-        <v>42661.65</v>
+        <v>57219.88</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>-12.7099665</v>
+        <v>-12.707953</v>
       </c>
       <c r="D40">
-        <v>-41.828490899999998</v>
+        <v>-39.696662400000001</v>
       </c>
       <c r="E40" s="4">
-        <v>57219.88</v>
+        <v>21122.2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>-12.707953</v>
+        <v>-12.672589200000001</v>
       </c>
       <c r="D41">
-        <v>-39.696662400000001</v>
+        <v>-38.543179000000002</v>
       </c>
       <c r="E41" s="4">
-        <v>21122.2</v>
+        <v>66438.3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>-12.672589200000001</v>
+        <v>-12.671875200000001</v>
       </c>
       <c r="D42">
-        <v>-38.543179000000002</v>
+        <v>-39.103931699999997</v>
       </c>
       <c r="E42" s="4">
-        <v>66438.3</v>
+        <v>490220.6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C43">
-        <v>-12.671875200000001</v>
+        <v>-12.6256734</v>
       </c>
       <c r="D43">
-        <v>-39.103931699999997</v>
+        <v>-38.989098800000001</v>
       </c>
       <c r="E43" s="4">
-        <v>490220.6</v>
+        <v>13101.6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C44">
-        <v>-12.6256734</v>
+        <v>-12.602281400000001</v>
       </c>
       <c r="D44">
-        <v>-38.989098800000001</v>
+        <v>-38.964211599999999</v>
       </c>
       <c r="E44" s="4">
-        <v>13101.6</v>
+        <v>312997.09999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>-12.602281400000001</v>
+        <v>-12.562316600000001</v>
       </c>
       <c r="D45">
-        <v>-38.964211599999999</v>
+        <v>-41.388602599999999</v>
       </c>
       <c r="E45" s="4">
-        <v>312997.09999999998</v>
+        <v>97194</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C46">
-        <v>-12.562316600000001</v>
+        <v>-12.5464232</v>
       </c>
       <c r="D46">
-        <v>-41.388602599999999</v>
+        <v>-38.710947599999997</v>
       </c>
       <c r="E46" s="4">
-        <v>97194</v>
+        <v>76446.399999999994</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>-12.5464232</v>
+        <v>-12.5308131</v>
       </c>
       <c r="D47">
-        <v>-38.710947599999997</v>
+        <v>-40.308371800000003</v>
       </c>
       <c r="E47" s="4">
-        <v>76446.399999999994</v>
+        <v>54624.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C48">
-        <v>-12.5308131</v>
+        <v>-12.5146538</v>
       </c>
       <c r="D48">
-        <v>-40.308371800000003</v>
+        <v>-41.5781621</v>
       </c>
       <c r="E48" s="4">
-        <v>54624.5</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>-12.5146538</v>
+        <v>-12.5127094</v>
       </c>
       <c r="D49">
-        <v>-41.5781621</v>
+        <v>-38.4908644</v>
       </c>
       <c r="E49" s="4">
-        <v>5865</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>-12.5127094</v>
+        <v>-12.502230900000001</v>
       </c>
       <c r="D50">
-        <v>-38.4908644</v>
+        <v>-39.001269000000001</v>
       </c>
       <c r="E50" s="4">
-        <v>5017</v>
+        <v>63989.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C51">
-        <v>-12.502230900000001</v>
+        <v>-12.435132899999999</v>
       </c>
       <c r="D51">
-        <v>-39.001269000000001</v>
+        <v>-38.950968799999998</v>
       </c>
       <c r="E51" s="4">
-        <v>63989.5</v>
+        <v>14672.9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>-12.435132899999999</v>
+        <v>-12.4308263</v>
       </c>
       <c r="D52">
-        <v>-38.950968799999998</v>
+        <v>-38.328187300000003</v>
       </c>
       <c r="E52" s="4">
-        <v>14672.9</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>-12.4308263</v>
+        <v>-12.4290813</v>
       </c>
       <c r="D53">
-        <v>-38.328187300000003</v>
+        <v>-39.251353000000002</v>
       </c>
       <c r="E53" s="4">
-        <v>3398</v>
+        <v>260162.4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>-12.4290813</v>
+        <v>-12.417506700000001</v>
       </c>
       <c r="D54">
-        <v>-39.251353000000002</v>
+        <v>-41.769223599999997</v>
       </c>
       <c r="E54" s="4">
-        <v>260162.4</v>
+        <v>175732.7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>-12.417506700000001</v>
+        <v>-12.3961612</v>
       </c>
       <c r="D55">
-        <v>-41.769223599999997</v>
+        <v>-38.758603999999998</v>
       </c>
       <c r="E55" s="4">
-        <v>175732.7</v>
+        <v>7186.8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>-12.3961612</v>
+        <v>-12.355086399999999</v>
       </c>
       <c r="D56">
-        <v>-38.758603999999998</v>
+        <v>-38.375635199999998</v>
       </c>
       <c r="E56" s="4">
-        <v>7186.8</v>
+        <v>29967.599999999999</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C57">
-        <v>-12.355086399999999</v>
+        <v>-12.330528599999999</v>
       </c>
       <c r="D57">
-        <v>-38.375635199999998</v>
+        <v>-38.767099299999998</v>
       </c>
       <c r="E57" s="4">
-        <v>29967.599999999999</v>
+        <v>68571.12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C58">
-        <v>-12.330528599999999</v>
+        <v>-12.283775800000001</v>
       </c>
       <c r="D58">
-        <v>-38.767099299999998</v>
+        <v>-40.491594599999999</v>
       </c>
       <c r="E58" s="4">
-        <v>68571.12</v>
+        <v>212265.03</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C59">
-        <v>-12.283775800000001</v>
+        <v>-12.2826722</v>
       </c>
       <c r="D59">
-        <v>-40.491594599999999</v>
+        <v>-41.172541500000001</v>
       </c>
       <c r="E59" s="4">
-        <v>115565.1</v>
+        <v>99491.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>-12.2837523</v>
+        <v>-12.2535848</v>
       </c>
       <c r="D60">
-        <v>-40.491587799999998</v>
+        <v>-38.960076200000003</v>
       </c>
       <c r="E60" s="4">
-        <v>96699.93</v>
+        <v>899730.32000000007</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C61">
-        <v>-12.2826722</v>
+        <v>-12.2479449</v>
       </c>
       <c r="D61">
-        <v>-41.172541500000001</v>
+        <v>-38.7486283</v>
       </c>
       <c r="E61" s="4">
-        <v>99491.5</v>
+        <v>193673.4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>-12.2535848</v>
+        <v>-12.1573156</v>
       </c>
       <c r="D62">
-        <v>-38.960076200000003</v>
+        <v>-39.739291299999998</v>
       </c>
       <c r="E62" s="4">
-        <v>899730.32000000007</v>
+        <v>340078.83</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C63">
-        <v>-12.2479449</v>
+        <v>-12.1387293</v>
       </c>
       <c r="D63">
-        <v>-38.7486283</v>
+        <v>-40.358985599999997</v>
       </c>
       <c r="E63" s="4">
-        <v>193673.4</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C64">
-        <v>-12.1573156</v>
+        <v>-12.133968899999999</v>
       </c>
       <c r="D64">
-        <v>-39.739291299999998</v>
+        <v>-38.4211223</v>
       </c>
       <c r="E64" s="4">
-        <v>340078.83</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C65">
-        <v>-12.1387293</v>
+        <v>-12.0806624</v>
       </c>
       <c r="D65">
-        <v>-40.358985599999997</v>
+        <v>-45.778657799999998</v>
       </c>
       <c r="E65" s="4">
-        <v>3091</v>
+        <v>136496.29999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C66">
-        <v>-12.133968899999999</v>
+        <v>-12.0805557</v>
       </c>
       <c r="D66">
-        <v>-38.4211223</v>
+        <v>-41.097293399999998</v>
       </c>
       <c r="E66" s="4">
-        <v>2460</v>
+        <v>97875.6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C67">
-        <v>-12.0806624</v>
+        <v>-12.0459549</v>
       </c>
       <c r="D67">
-        <v>-45.778657799999998</v>
+        <v>-38.765991900000003</v>
       </c>
       <c r="E67" s="4">
-        <v>136496.29999999999</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C68">
-        <v>-12.0805557</v>
+        <v>-12.000544100000001</v>
       </c>
       <c r="D68">
-        <v>-41.097293399999998</v>
+        <v>-42.626278499999998</v>
       </c>
       <c r="E68" s="4">
-        <v>97875.6</v>
+        <v>73472.7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>-12.0459549</v>
+        <v>-11.960082699999999</v>
       </c>
       <c r="D69">
-        <v>-38.765991900000003</v>
+        <v>-40.1679247</v>
       </c>
       <c r="E69" s="4">
-        <v>4330</v>
+        <v>335885.1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C70">
-        <v>-12.000544100000001</v>
+        <v>-11.9445076</v>
       </c>
       <c r="D70">
-        <v>-42.626278499999998</v>
+        <v>-38.082926999999998</v>
       </c>
       <c r="E70" s="4">
-        <v>73472.7</v>
+        <v>77639.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C71">
-        <v>-11.960082699999999</v>
+        <v>-11.857858200000001</v>
       </c>
       <c r="D71">
-        <v>-40.1679247</v>
+        <v>-40.471963899999999</v>
       </c>
       <c r="E71" s="4">
-        <v>335885.1</v>
+        <v>31438.3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C72">
-        <v>-11.9445076</v>
+        <v>-11.8471473</v>
       </c>
       <c r="D72">
-        <v>-38.082926999999998</v>
+        <v>-40.792900500000002</v>
       </c>
       <c r="E72" s="4">
-        <v>77639.5</v>
+        <v>81028.600000000006</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C73">
-        <v>-11.857858200000001</v>
+        <v>-11.8127722</v>
       </c>
       <c r="D73">
-        <v>-40.471963899999999</v>
+        <v>-39.907893399999999</v>
       </c>
       <c r="E73" s="4">
-        <v>31438.3</v>
+        <v>7393.65</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="C74">
-        <v>-11.8471473</v>
+        <v>-11.809425299999999</v>
       </c>
       <c r="D74">
-        <v>-40.792900500000002</v>
+        <v>-39.383044400000003</v>
       </c>
       <c r="E74" s="4">
-        <v>81028.600000000006</v>
+        <v>355608.26</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C75">
-        <v>-11.8127722</v>
+        <v>-11.807821300000001</v>
       </c>
       <c r="D75">
-        <v>-39.907893399999999</v>
+        <v>-39.119356500000002</v>
       </c>
       <c r="E75" s="4">
-        <v>7393.65</v>
+        <v>15789.7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C76">
-        <v>-11.809425299999999</v>
+        <v>-11.7956851</v>
       </c>
       <c r="D76">
-        <v>-39.383044400000003</v>
+        <v>-37.944799600000003</v>
       </c>
       <c r="E76" s="4">
-        <v>355608.26</v>
+        <v>41676</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>-11.807821300000001</v>
+        <v>-11.7868374</v>
       </c>
       <c r="D77">
-        <v>-39.119356500000002</v>
+        <v>-38.352521199999998</v>
       </c>
       <c r="E77" s="4">
-        <v>15789.7</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C78">
-        <v>-11.7956851</v>
+        <v>-11.7488397</v>
       </c>
       <c r="D78">
-        <v>-37.944799600000003</v>
+        <v>-39.192899300000001</v>
       </c>
       <c r="E78" s="4">
-        <v>41676</v>
+        <v>61693.8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>-11.7868374</v>
+        <v>-11.729419399999999</v>
       </c>
       <c r="D79">
-        <v>-38.352521199999998</v>
+        <v>-40.555323899999998</v>
       </c>
       <c r="E79" s="4">
-        <v>5991</v>
+        <v>66258</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>-11.7488397</v>
+        <v>-11.7125875</v>
       </c>
       <c r="D80">
-        <v>-39.192899300000001</v>
+        <v>-40.1513256</v>
       </c>
       <c r="E80" s="4">
-        <v>61693.8</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C81">
-        <v>-11.729419399999999</v>
+        <v>-11.6919586</v>
       </c>
       <c r="D81">
-        <v>-40.555323899999998</v>
+        <v>-41.468374500000003</v>
       </c>
       <c r="E81" s="4">
-        <v>66258</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82">
-        <v>-11.7125875</v>
+        <v>-11.6680612</v>
       </c>
       <c r="D82">
-        <v>-40.1513256</v>
+        <v>-39.837361700000002</v>
       </c>
       <c r="E82" s="4">
-        <v>16407</v>
+        <v>45942.5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C83">
-        <v>-11.6919586</v>
+        <v>-11.662841999999999</v>
       </c>
       <c r="D83">
-        <v>-41.468374500000003</v>
+        <v>-39.0084965</v>
       </c>
       <c r="E83" s="4">
-        <v>1478</v>
+        <v>126776.59</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C84">
-        <v>-11.6680612</v>
+        <v>-11.661242</v>
       </c>
       <c r="D84">
-        <v>-39.837361700000002</v>
+        <v>-38.018896300000002</v>
       </c>
       <c r="E84" s="4">
-        <v>45942.5</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C85">
-        <v>-11.662841999999999</v>
+        <v>-11.660468</v>
       </c>
       <c r="D85">
-        <v>-39.0084965</v>
+        <v>-38.080340900000003</v>
       </c>
       <c r="E85" s="4">
-        <v>126776.59</v>
+        <v>30079.599999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>-11.661242</v>
+        <v>-11.6069982</v>
       </c>
       <c r="D86">
-        <v>-38.018896300000002</v>
+        <v>-39.6302764</v>
       </c>
       <c r="E86" s="4">
-        <v>6691</v>
+        <v>5287.6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C87">
-        <v>-11.660468</v>
+        <v>-11.604453700000001</v>
       </c>
       <c r="D87">
-        <v>-38.080340900000003</v>
+        <v>-38.581784200000001</v>
       </c>
       <c r="E87" s="4">
-        <v>30079.599999999999</v>
+        <v>10519.2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C88">
-        <v>-11.6069982</v>
+        <v>-11.5634718</v>
       </c>
       <c r="D88">
-        <v>-39.6302764</v>
+        <v>-39.283898600000001</v>
       </c>
       <c r="E88" s="4">
-        <v>5287.6</v>
+        <v>132088.95000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C89">
-        <v>-11.604453700000001</v>
+        <v>-11.549258399999999</v>
       </c>
       <c r="D89">
-        <v>-38.581784200000001</v>
+        <v>-41.157266800000002</v>
       </c>
       <c r="E89" s="4">
-        <v>10519.2</v>
+        <v>5168.8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C90">
-        <v>-11.5634718</v>
+        <v>-11.528093800000001</v>
       </c>
       <c r="D90">
-        <v>-39.283898600000001</v>
+        <v>-40.318880299999996</v>
       </c>
       <c r="E90" s="4">
-        <v>132088.95000000001</v>
+        <v>60448.099999999991</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C91">
-        <v>-11.549258399999999</v>
+        <v>-11.4840397</v>
       </c>
       <c r="D91">
-        <v>-41.157266800000002</v>
+        <v>-37.932189600000001</v>
       </c>
       <c r="E91" s="4">
-        <v>5168.8</v>
+        <v>148610.92000000001</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>-11.528093800000001</v>
+        <v>-11.428701800000001</v>
       </c>
       <c r="D92">
-        <v>-40.318880299999996</v>
+        <v>-40.5947958</v>
       </c>
       <c r="E92" s="4">
-        <v>60448.099999999991</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C93">
-        <v>-11.4840397</v>
+        <v>-11.4105276</v>
       </c>
       <c r="D93">
-        <v>-37.932189600000001</v>
+        <v>-39.465292599999998</v>
       </c>
       <c r="E93" s="4">
-        <v>148610.92000000001</v>
+        <v>108976.4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>-11.428701800000001</v>
+        <v>-11.379572</v>
       </c>
       <c r="D94">
-        <v>-40.5947958</v>
+        <v>-40.011479899999998</v>
       </c>
       <c r="E94" s="4">
-        <v>1289</v>
+        <v>125500.8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C95">
-        <v>-11.4105276</v>
+        <v>-11.362617200000001</v>
       </c>
       <c r="D95">
-        <v>-39.465292599999998</v>
+        <v>-38.328451100000002</v>
       </c>
       <c r="E95" s="4">
-        <v>108976.4</v>
+        <v>7118.8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>-11.4098737</v>
+        <v>-11.3373407</v>
       </c>
       <c r="D96">
-        <v>-41.280857699999999</v>
+        <v>-38.9632091</v>
       </c>
       <c r="E96" s="4">
-        <v>6604.8</v>
+        <v>8773.7000000000007</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C97">
-        <v>-11.379572</v>
+        <v>-11.2544854</v>
       </c>
       <c r="D97">
-        <v>-40.011479899999998</v>
+        <v>-39.375203900000002</v>
       </c>
       <c r="E97" s="4">
-        <v>125500.8</v>
+        <v>20476.3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C98">
-        <v>-11.362617200000001</v>
+        <v>-11.2391995</v>
       </c>
       <c r="D98">
-        <v>-38.328451100000002</v>
+        <v>-38.480296199999998</v>
       </c>
       <c r="E98" s="4">
-        <v>7118.8</v>
+        <v>14289.5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C99">
-        <v>-11.3373407</v>
+        <v>-11.181650599999999</v>
       </c>
       <c r="D99">
-        <v>-38.9632091</v>
+        <v>-40.512060300000002</v>
       </c>
       <c r="E99" s="4">
-        <v>8773.7000000000007</v>
+        <v>209303.6</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C100">
-        <v>-11.2544854</v>
+        <v>-11.1354811</v>
       </c>
       <c r="D100">
-        <v>-39.375203900000002</v>
+        <v>-42.111474999999999</v>
       </c>
       <c r="E100" s="4">
-        <v>20476.3</v>
+        <v>20203.3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C101">
-        <v>-11.2391995</v>
+        <v>-11.089726199999999</v>
       </c>
       <c r="D101">
-        <v>-38.480296199999998</v>
+        <v>-43.139124600000002</v>
       </c>
       <c r="E101" s="4">
-        <v>14289.5</v>
+        <v>17468.7</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C102">
-        <v>-11.181650599999999</v>
+        <v>-10.9798025</v>
       </c>
       <c r="D102">
-        <v>-40.512060300000002</v>
+        <v>-39.622366800000002</v>
       </c>
       <c r="E102" s="4">
-        <v>209303.6</v>
+        <v>26886</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C103">
-        <v>-11.1354811</v>
+        <v>-10.9620193</v>
       </c>
       <c r="D103">
-        <v>-42.111474999999999</v>
+        <v>-38.791529799999999</v>
       </c>
       <c r="E103" s="4">
-        <v>20203.3</v>
+        <v>318560.3</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C104">
-        <v>-11.089726199999999</v>
+        <v>-10.9443248</v>
       </c>
       <c r="D104">
-        <v>-43.139124600000002</v>
+        <v>-42.426041300000001</v>
       </c>
       <c r="E104" s="4">
-        <v>17468.7</v>
+        <v>28210.799999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C105">
-        <v>-10.9798025</v>
+        <v>-10.836488599999999</v>
       </c>
       <c r="D105">
-        <v>-39.622366800000002</v>
+        <v>-38.543965100000001</v>
       </c>
       <c r="E105" s="4">
-        <v>26886</v>
+        <v>308063.90000000002</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C106">
-        <v>-10.9620193</v>
+        <v>-10.8248202</v>
       </c>
       <c r="D106">
-        <v>-38.791529799999999</v>
+        <v>-39.429397299999998</v>
       </c>
       <c r="E106" s="4">
-        <v>318560.3</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C107">
-        <v>-10.9443248</v>
+        <v>-10.823388400000001</v>
       </c>
       <c r="D107">
-        <v>-42.426041300000001</v>
+        <v>-42.724930499999999</v>
       </c>
       <c r="E107" s="4">
-        <v>28210.799999999999</v>
+        <v>12347.5</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C108">
-        <v>-10.836488599999999</v>
+        <v>-10.7436015</v>
       </c>
       <c r="D108">
-        <v>-38.543965100000001</v>
+        <v>-40.363298899999997</v>
       </c>
       <c r="E108" s="4">
-        <v>308063.90000000002</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C109">
-        <v>-10.8248202</v>
+        <v>-10.741439400000001</v>
       </c>
       <c r="D109">
-        <v>-39.429397299999998</v>
+        <v>-40.133075499999997</v>
       </c>
       <c r="E109" s="4">
-        <v>10177</v>
+        <v>21858.5</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>-10.823388400000001</v>
+        <v>-10.6678189</v>
       </c>
       <c r="D110">
-        <v>-42.724930499999999</v>
+        <v>-39.496451700000001</v>
       </c>
       <c r="E110" s="4">
-        <v>12347.5</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="C111">
-        <v>-10.7436015</v>
+        <v>-10.5078999</v>
       </c>
       <c r="D111">
-        <v>-40.363298899999997</v>
+        <v>-39.014781499999998</v>
       </c>
       <c r="E111" s="4">
-        <v>1874</v>
+        <v>101888</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C112">
-        <v>-10.741439400000001</v>
+        <v>-10.461449399999999</v>
       </c>
       <c r="D112">
-        <v>-40.133075499999997</v>
+        <v>-40.186737000000001</v>
       </c>
       <c r="E112" s="4">
-        <v>21858.5</v>
+        <v>532620.69999999995</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C113">
-        <v>-10.6678189</v>
+        <v>-10.4121261</v>
       </c>
       <c r="D113">
-        <v>-39.496451700000001</v>
+        <v>-38.331327999999999</v>
       </c>
       <c r="E113" s="4">
-        <v>1035</v>
+        <v>78500.850000000006</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C114">
-        <v>-10.5078999</v>
+        <v>-10.365168799999999</v>
       </c>
       <c r="D114">
-        <v>-39.014781499999998</v>
+        <v>-38.203380799999998</v>
       </c>
       <c r="E114" s="4">
-        <v>101888</v>
+        <v>61348.800000000003</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C115">
-        <v>-10.461449399999999</v>
+        <v>-10.257993000000001</v>
       </c>
       <c r="D115">
-        <v>-40.186737000000001</v>
+        <v>-40.194529699999997</v>
       </c>
       <c r="E115" s="4">
-        <v>532620.69999999995</v>
+        <v>25697.3</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C116">
-        <v>-10.4121261</v>
+        <v>-10.076057799999999</v>
       </c>
       <c r="D116">
-        <v>-38.331327999999999</v>
+        <v>-38.3471324</v>
       </c>
       <c r="E116" s="4">
-        <v>78500.850000000006</v>
+        <v>14236.8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C117">
-        <v>-10.365168799999999</v>
+        <v>-9.6257012999999993</v>
       </c>
       <c r="D117">
-        <v>-38.203380799999998</v>
+        <v>-42.086128000000002</v>
       </c>
       <c r="E117" s="4">
-        <v>61348.800000000003</v>
+        <v>93095.2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C118">
-        <v>-10.257993000000001</v>
+        <v>-9.4312696999999996</v>
       </c>
       <c r="D118">
-        <v>-40.194529699999997</v>
+        <v>-40.5078709</v>
       </c>
       <c r="E118" s="4">
-        <v>25697.3</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C119">
-        <v>-10.076057799999999</v>
+        <v>-9.4000616000000008</v>
       </c>
       <c r="D119">
-        <v>-38.3471324</v>
+        <v>-38.217641100000002</v>
       </c>
       <c r="E119" s="4">
-        <v>14236.8</v>
+        <v>691703.84</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C120">
-        <v>-9.6257012999999993</v>
+        <v>-8.8501464999999993</v>
       </c>
       <c r="D120">
-        <v>-42.086128000000002</v>
+        <v>-38.766782300000003</v>
       </c>
       <c r="E120" s="4">
-        <v>93095.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121">
-        <v>-9.4312696999999996</v>
-      </c>
-      <c r="D121">
-        <v>-40.5078709</v>
-      </c>
-      <c r="E121" s="4">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122">
-        <v>-9.4000616000000008</v>
-      </c>
-      <c r="D122">
-        <v>-38.217641100000002</v>
-      </c>
-      <c r="E122" s="4">
-        <v>691703.84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C123">
-        <v>-8.8501464999999993</v>
-      </c>
-      <c r="D123">
-        <v>-38.766782300000003</v>
-      </c>
-      <c r="E123" s="4">
         <v>33412.800000000003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>